--- a/Outputs/TT/poverty_output.xlsx
+++ b/Outputs/TT/poverty_output.xlsx
@@ -999,7 +999,7 @@
         <v>2.21298319049</v>
       </c>
       <c r="K2">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1034,7 +1034,7 @@
         <v>11.2469664187</v>
       </c>
       <c r="K3">
-        <v>0.04366179571003828</v>
+        <v>0.00659951976534376</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1069,7 +1069,7 @@
         <v>0.271955264569</v>
       </c>
       <c r="K4">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1083,7 +1083,7 @@
         <v>0.209118146287</v>
       </c>
       <c r="K5">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1118,7 +1118,7 @@
         <v>2.02754522385</v>
       </c>
       <c r="K6">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1132,7 +1132,7 @@
         <v>0.357936384024</v>
       </c>
       <c r="K7">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1167,7 +1167,7 @@
         <v>3.77559258768</v>
       </c>
       <c r="K8">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1199,7 +1199,7 @@
         <v>1.80011179336</v>
       </c>
       <c r="K9">
-        <v>0.04487651592794084</v>
+        <v>0.0245859441514301</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1234,7 +1234,7 @@
         <v>4.24177452761</v>
       </c>
       <c r="K10">
-        <v>0.04828810269823348</v>
+        <v>0.02727990696574195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1269,7 +1269,7 @@
         <v>1.37397008088</v>
       </c>
       <c r="K11">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1304,7 +1304,7 @@
         <v>4.20951543225</v>
       </c>
       <c r="K12">
-        <v>0.2823721877508888</v>
+        <v>0.283126696816069</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1318,7 +1318,7 @@
         <v>0.0429155876819</v>
       </c>
       <c r="K13">
-        <v>0.04366179571003828</v>
+        <v>0.00659951976534376</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1332,7 +1332,7 @@
         <v>0.08538788589530001</v>
       </c>
       <c r="K14">
-        <v>0.04366179571003828</v>
+        <v>0.00659951976534376</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,7 +1346,7 @@
         <v>0.85969636805</v>
       </c>
       <c r="K15">
-        <v>0.04366179571003828</v>
+        <v>0.00659951976534376</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,7 +1381,7 @@
         <v>4.42947499742</v>
       </c>
       <c r="K16">
-        <v>0.09813872930176926</v>
+        <v>0.1509701881177606</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,7 +1416,7 @@
         <v>1.18778544266</v>
       </c>
       <c r="K17">
-        <v>0.04366179571003828</v>
+        <v>0.00659951976534376</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1430,7 +1430,7 @@
         <v>3.27249038479</v>
       </c>
       <c r="K18">
-        <v>0.0476807425892822</v>
+        <v>0.01828669477269881</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1465,7 +1465,7 @@
         <v>1.95801235762</v>
       </c>
       <c r="K19">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1500,7 +1500,7 @@
         <v>1.86640516275</v>
       </c>
       <c r="K20">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1535,7 +1535,7 @@
         <v>4.639154961530001</v>
       </c>
       <c r="K21">
-        <v>0.03554242761150762</v>
+        <v>0.0149869348900269</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1570,7 +1570,7 @@
         <v>1.52470016361</v>
       </c>
       <c r="K22">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1605,7 +1605,7 @@
         <v>2.06311724384</v>
       </c>
       <c r="K23">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1640,7 +1640,7 @@
         <v>3.75714370003</v>
       </c>
       <c r="K24">
-        <v>0.2078320765277443</v>
+        <v>0.1784541321732883</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1654,7 +1654,7 @@
         <v>0.711713674278</v>
       </c>
       <c r="K25">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1668,7 +1668,7 @@
         <v>0.0326140468585</v>
       </c>
       <c r="K26">
-        <v>0.05169968946852613</v>
+        <v>0.0299738697800538</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1703,7 +1703,7 @@
         <v>3.37296914288</v>
       </c>
       <c r="K27">
-        <v>0.3639644635869624</v>
+        <v>0.3269343945665227</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1738,7 +1738,7 @@
         <v>2.75451859239</v>
       </c>
       <c r="K28">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1773,7 +1773,7 @@
         <v>2.81890251748</v>
       </c>
       <c r="K29">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1808,7 +1808,7 @@
         <v>1.66635099276</v>
       </c>
       <c r="K30">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1843,7 +1843,7 @@
         <v>4.36446486691</v>
       </c>
       <c r="K31">
-        <v>0.0241162280501319</v>
+        <v>0.01144685507470478</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1878,7 +1878,7 @@
         <v>0.466011736493</v>
       </c>
       <c r="K32">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1913,7 +1913,7 @@
         <v>2.37252186276</v>
       </c>
       <c r="K33">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1948,7 +1948,7 @@
         <v>0.530978157557</v>
       </c>
       <c r="K34">
-        <v>0.01938516575448911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1983,7 +1983,7 @@
         <v>1.8484457239</v>
       </c>
       <c r="K35">
-        <v>0.3639644635869624</v>
+        <v>0.3269343945665227</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2018,7 +2018,7 @@
         <v>1.31738612474</v>
       </c>
       <c r="K36">
-        <v>0.3639644635869624</v>
+        <v>0.3269343945665227</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2053,7 +2053,7 @@
         <v>2.93688458877</v>
       </c>
       <c r="K37">
-        <v>0.03113428846668327</v>
+        <v>0.05421588868989319</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2088,7 +2088,7 @@
         <v>1.54848745222</v>
       </c>
       <c r="K38">
-        <v>0.3639644635869624</v>
+        <v>0.3269343945665227</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2123,7 +2123,7 @@
         <v>0.631437015887</v>
       </c>
       <c r="K39">
-        <v>0.3639644635869624</v>
+        <v>0.3269343945665227</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2158,7 +2158,7 @@
         <v>2.61180228867</v>
       </c>
       <c r="K40">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2193,7 +2193,7 @@
         <v>0.874816372154</v>
       </c>
       <c r="K41">
-        <v>0.4069653937249464</v>
+        <v>0.4046186766945699</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2228,7 +2228,7 @@
         <v>5.24070310892</v>
       </c>
       <c r="K42">
-        <v>0.4499663238629301</v>
+        <v>0.4823029588226171</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2263,7 +2263,7 @@
         <v>2.05009433556</v>
       </c>
       <c r="K43">
-        <v>0.4499663238629301</v>
+        <v>0.4823029588226171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2298,7 +2298,7 @@
         <v>1.41508339599</v>
       </c>
       <c r="K44">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2333,7 +2333,7 @@
         <v>0.480276524089</v>
       </c>
       <c r="K45">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2368,7 +2368,7 @@
         <v>5.20572588583</v>
       </c>
       <c r="K46">
-        <v>0.1817338238096153</v>
+        <v>0.1834754106296574</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2403,7 +2403,7 @@
         <v>2.02262738416</v>
       </c>
       <c r="K47">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2438,7 +2438,7 @@
         <v>2.32077294093</v>
       </c>
       <c r="K48">
-        <v>0.4499663238629301</v>
+        <v>0.4823029588226171</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2473,7 +2473,7 @@
         <v>2.55070448056</v>
       </c>
       <c r="K49">
-        <v>0.4499663238629301</v>
+        <v>0.4823029588226171</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2508,7 +2508,7 @@
         <v>1.03432944709</v>
       </c>
       <c r="K50">
-        <v>0.04288341117887766</v>
+        <v>0.1084317773797864</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2543,7 +2543,7 @@
         <v>3.57290652483</v>
       </c>
       <c r="K51">
-        <v>0.05968909052492419</v>
+        <v>0.1381613350262819</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2578,7 +2578,7 @@
         <v>2.37534156814</v>
       </c>
       <c r="K52">
-        <v>0.3284515861406674</v>
+        <v>0.3568966601253504</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2613,7 +2613,7 @@
         <v>3.31152766483</v>
       </c>
       <c r="K53">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2648,7 +2648,7 @@
         <v>1.15133894537</v>
       </c>
       <c r="K54">
-        <v>0.4320475749393013</v>
+        <v>0.4217800124415597</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2683,7 +2683,7 @@
         <v>1.18236404286</v>
       </c>
       <c r="K55">
-        <v>0.04288341117887766</v>
+        <v>0.1084317773797864</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2718,7 +2718,7 @@
         <v>4.755083917569999</v>
       </c>
       <c r="K56">
-        <v>0.06069084875219741</v>
+        <v>0.1174739074168781</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2753,7 +2753,7 @@
         <v>0.614146066608</v>
       </c>
       <c r="K57">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2788,7 +2788,7 @@
         <v>7.034756503560001</v>
       </c>
       <c r="K58">
-        <v>0.02884729034577468</v>
+        <v>0.02289371014940962</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2823,7 +2823,7 @@
         <v>0.47201922999</v>
       </c>
       <c r="K59">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2858,7 +2858,7 @@
         <v>2.35403262489</v>
       </c>
       <c r="K60">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2893,7 +2893,7 @@
         <v>1.31197147916</v>
       </c>
       <c r="K61">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2928,7 +2928,7 @@
         <v>1.59673730947</v>
       </c>
       <c r="K62">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2963,7 +2963,7 @@
         <v>1.79305179619</v>
       </c>
       <c r="K63">
-        <v>0.3284515861406674</v>
+        <v>0.3568966601253504</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2998,7 +2998,7 @@
         <v>1.3066174005</v>
       </c>
       <c r="K64">
-        <v>0.3284515861406674</v>
+        <v>0.3568966601253504</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3012,7 +3012,7 @@
         <v>0.041708868189</v>
       </c>
       <c r="K65">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3047,7 +3047,7 @@
         <v>0.992292562077</v>
       </c>
       <c r="K66">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3082,7 +3082,7 @@
         <v>0.697740676493</v>
       </c>
       <c r="K67">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3117,7 +3117,7 @@
         <v>1.32320320306</v>
       </c>
       <c r="K68">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3152,7 +3152,7 @@
         <v>0.264764074571</v>
       </c>
       <c r="K69">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3187,7 +3187,7 @@
         <v>3.11676224753</v>
       </c>
       <c r="K70">
-        <v>0.3158310775015584</v>
+        <v>0.2639181547206838</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3222,7 +3222,7 @@
         <v>1.59285619452</v>
       </c>
       <c r="K71">
-        <v>0.4147948962037981</v>
+        <v>0.3711207054651088</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3257,7 +3257,7 @@
         <v>0.5445393436720001</v>
       </c>
       <c r="K72">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3292,7 +3292,7 @@
         <v>2.8477270167</v>
       </c>
       <c r="K73">
-        <v>0.07749652809824395</v>
+        <v>0.1472034650633736</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3327,7 +3327,7 @@
         <v>4.31109654994</v>
       </c>
       <c r="K74">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3362,7 +3362,7 @@
         <v>1.97315446011</v>
       </c>
       <c r="K75">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3394,7 +3394,7 @@
         <v>0.234580301343</v>
       </c>
       <c r="K76">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3429,7 +3429,7 @@
         <v>0.569247151121</v>
       </c>
       <c r="K77">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3464,7 +3464,7 @@
         <v>0.25509825235</v>
       </c>
       <c r="K78">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3499,7 +3499,7 @@
         <v>0.411381801014</v>
       </c>
       <c r="K79">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3534,7 +3534,7 @@
         <v>2.57526457167</v>
       </c>
       <c r="K80">
-        <v>0.3573496181871147</v>
+        <v>0.3405158889541366</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3569,7 +3569,7 @@
         <v>5.869738245009999</v>
       </c>
       <c r="K81">
-        <v>0.3435101046252624</v>
+        <v>0.314983310876319</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3604,7 +3604,7 @@
         <v>1.86540513759</v>
       </c>
       <c r="K82">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3639,7 +3639,7 @@
         <v>2.06611660328</v>
       </c>
       <c r="K83">
-        <v>0.2069368484184049</v>
+        <v>0.2314903614280836</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3674,7 +3674,7 @@
         <v>0.851153876708</v>
       </c>
       <c r="K84">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3709,7 +3709,7 @@
         <v>0.166441588352</v>
       </c>
       <c r="K85">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3741,7 +3741,7 @@
         <v>0.0139909133953</v>
       </c>
       <c r="K86">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3776,7 +3776,7 @@
         <v>0.367224335329</v>
       </c>
       <c r="K87">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3811,7 +3811,7 @@
         <v>1.34162331793</v>
       </c>
       <c r="K88">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3846,7 +3846,7 @@
         <v>1.14417675313</v>
       </c>
       <c r="K89">
-        <v>0.2613839629599816</v>
+        <v>0.2477042580743838</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3881,7 +3881,7 @@
         <v>1.57397944819</v>
       </c>
       <c r="K90">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3916,7 +3916,7 @@
         <v>0.554594844549</v>
       </c>
       <c r="K91">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3951,7 +3951,7 @@
         <v>0.7656176237090001</v>
       </c>
       <c r="K92">
-        <v>0.5137587149060379</v>
+        <v>0.4783232562095336</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3986,7 +3986,7 @@
         <v>1.74913063697</v>
       </c>
       <c r="K93">
-        <v>0.4935492187266697</v>
+        <v>0.5180971902522193</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4021,7 +4021,7 @@
         <v>1.16234831856</v>
       </c>
       <c r="K94">
-        <v>0.4320475749393013</v>
+        <v>0.4217800124415597</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4056,7 +4056,7 @@
         <v>1.31027731492</v>
       </c>
       <c r="K95">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4091,7 +4091,7 @@
         <v>1.89137375513</v>
       </c>
       <c r="K96">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4126,7 +4126,7 @@
         <v>1.70839084459</v>
       </c>
       <c r="K97">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4161,7 +4161,7 @@
         <v>0.311561692674</v>
       </c>
       <c r="K98">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4196,7 +4196,7 @@
         <v>0.6814993017290001</v>
       </c>
       <c r="K99">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4231,7 +4231,7 @@
         <v>1.17727480982</v>
       </c>
       <c r="K100">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4266,7 +4266,7 @@
         <v>0.341342793196</v>
       </c>
       <c r="K101">
-        <v>0.07849828632551741</v>
+        <v>0.1265160374539698</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4301,7 +4301,7 @@
         <v>5.60620034931</v>
       </c>
       <c r="K102">
-        <v>0.06525878345659443</v>
+        <v>0.08146222706930223</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4336,7 +4336,7 @@
         <v>0.385927238786</v>
       </c>
       <c r="K103">
-        <v>0.5077623879558245</v>
+        <v>0.4495414164801896</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4371,7 +4371,7 @@
         <v>2.62012834853</v>
       </c>
       <c r="K104">
-        <v>0.07849828632551741</v>
+        <v>0.1265160374539698</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4406,7 +4406,7 @@
         <v>1.375020657</v>
       </c>
       <c r="K105">
-        <v>0.4419689856498865</v>
+        <v>0.4624100200297892</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4441,7 +4441,7 @@
         <v>0.204383745654</v>
       </c>
       <c r="K106">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4455,7 +4455,7 @@
         <v>1.08510641258</v>
       </c>
       <c r="K107">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4490,7 +4490,7 @@
         <v>3.54536785916</v>
       </c>
       <c r="K108">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4525,7 +4525,7 @@
         <v>3.04497278485</v>
       </c>
       <c r="K109">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4557,7 +4557,7 @@
         <v>0.0906262453232</v>
       </c>
       <c r="K110">
-        <v>0.3761755833439484</v>
+        <v>0.4752786235793889</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4592,7 +4592,7 @@
         <v>3.5013848062</v>
       </c>
       <c r="K111">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4627,7 +4627,7 @@
         <v>10.6905741893</v>
       </c>
       <c r="K112">
-        <v>0.4419689856498865</v>
+        <v>0.4624100200297892</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4662,7 +4662,7 @@
         <v>1.85376203448</v>
       </c>
       <c r="K113">
-        <v>0.3761755833439484</v>
+        <v>0.4752786235793889</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4676,7 +4676,7 @@
         <v>0.121398353296</v>
       </c>
       <c r="K114">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4711,7 +4711,7 @@
         <v>4.58538949542</v>
       </c>
       <c r="K115">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4743,7 +4743,7 @@
         <v>0.0688485217213</v>
       </c>
       <c r="K116">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4757,7 +4757,7 @@
         <v>0.0434194939589</v>
       </c>
       <c r="K117">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4771,7 +4771,7 @@
         <v>0.04624628234130001</v>
       </c>
       <c r="K118">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4785,7 +4785,7 @@
         <v>0.0240107238128</v>
       </c>
       <c r="K119">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4796,7 +4796,7 @@
         <v>0.0132393220727</v>
       </c>
       <c r="K120">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4807,7 +4807,7 @@
         <v>0.0136083846088</v>
       </c>
       <c r="K121">
-        <v>0.4733397225473018</v>
+        <v>0.557871124294905</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4842,7 +4842,7 @@
         <v>1.71552041221</v>
       </c>
       <c r="K122">
-        <v>0.7366698612736509</v>
+        <v>0.7789355621474526</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4874,7 +4874,7 @@
         <v>0.0209700823011</v>
       </c>
       <c r="K123">
-        <v>0.3761755833439484</v>
+        <v>0.4752786235793889</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4909,7 +4909,7 @@
         <v>2.93535451532</v>
       </c>
       <c r="K124">
-        <v>0.3761755833439484</v>
+        <v>0.4752786235793889</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4944,7 +4944,7 @@
         <v>2.07696992176</v>
       </c>
       <c r="K125">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4979,7 +4979,7 @@
         <v>3.5744032961</v>
       </c>
       <c r="K126">
-        <v>0.07849828632551741</v>
+        <v>0.1265160374539698</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5014,7 +5014,7 @@
         <v>2.21979037881</v>
       </c>
       <c r="K127">
-        <v>0.06525878345659443</v>
+        <v>0.08146222706930223</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5028,7 +5028,7 @@
         <v>0.0168068016542</v>
       </c>
       <c r="K128">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5042,7 +5042,7 @@
         <v>0.112425776439</v>
       </c>
       <c r="K129">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5077,7 +5077,7 @@
         <v>1.68799322993</v>
       </c>
       <c r="K130">
-        <v>0.314282159237879</v>
+        <v>0.4180377270672863</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5112,7 +5112,7 @@
         <v>3.89899027525</v>
       </c>
       <c r="K131">
-        <v>0.07849828632551741</v>
+        <v>0.1265160374539698</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5126,7 +5126,7 @@
         <v>1.16536292635</v>
       </c>
       <c r="K132">
-        <v>0.07849828632551741</v>
+        <v>0.1265160374539698</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5161,7 +5161,7 @@
         <v>1.17521083123</v>
       </c>
       <c r="K133">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5193,7 +5193,7 @@
         <v>0.0140104774262</v>
       </c>
       <c r="K134">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5225,7 +5225,7 @@
         <v>0.0300446186177</v>
       </c>
       <c r="K135">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5260,7 +5260,7 @@
         <v>0.273551884295</v>
       </c>
       <c r="K136">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5344,7 +5344,7 @@
         <v>0.8337031329919999</v>
       </c>
       <c r="K139">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5407,7 +5407,7 @@
         <v>0.175488691422</v>
       </c>
       <c r="K142">
-        <v>0.6880877916719742</v>
+        <v>0.7376393117896943</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5477,7 +5477,7 @@
         <v>0.721570157797</v>
       </c>
       <c r="K144">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5601,7 +5601,7 @@
         <v>0.621545169511</v>
       </c>
       <c r="K149">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5636,7 +5636,7 @@
         <v>1.33559155443</v>
       </c>
       <c r="K150">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5650,7 +5650,7 @@
         <v>0.0318299590005</v>
       </c>
       <c r="K151">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5685,7 +5685,7 @@
         <v>0.408823705337</v>
       </c>
       <c r="K152">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5720,7 +5720,7 @@
         <v>0.398153036498</v>
       </c>
       <c r="K153">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5734,7 +5734,7 @@
         <v>0.0382324670557</v>
       </c>
       <c r="K154">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5748,7 +5748,7 @@
         <v>0.00919867253734</v>
       </c>
       <c r="K155">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5759,7 +5759,7 @@
         <v>0.123822511763</v>
       </c>
       <c r="K156">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5794,7 +5794,7 @@
         <v>6.527804118580001</v>
       </c>
       <c r="K157">
-        <v>0.1682648401611684</v>
+        <v>0.1206013176753502</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5829,7 +5829,7 @@
         <v>5.569491520030001</v>
       </c>
       <c r="K158">
-        <v>0.1682648401611684</v>
+        <v>0.1206013176753502</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5843,7 +5843,7 @@
         <v>0.0598534218439</v>
       </c>
       <c r="K159">
-        <v>0.07649476987097049</v>
+        <v>0.1678908926727774</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5878,7 +5878,7 @@
         <v>0.634695885625</v>
       </c>
       <c r="K160">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5913,7 +5913,7 @@
         <v>2.42756777369</v>
       </c>
       <c r="K161">
-        <v>0.4182899741697264</v>
+        <v>0.4364893900639304</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5948,7 +5948,7 @@
         <v>2.17312416967</v>
       </c>
       <c r="K162">
-        <v>0.4182899741697264</v>
+        <v>0.4364893900639304</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6078,7 +6078,7 @@
         <v>0.35329402733</v>
       </c>
       <c r="K167">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6092,7 +6092,7 @@
         <v>0.0389842632097</v>
       </c>
       <c r="K168">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6127,7 +6127,7 @@
         <v>2.13840697052</v>
       </c>
       <c r="K169">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6162,7 +6162,7 @@
         <v>0.246544328662</v>
       </c>
       <c r="K170">
-        <v>0.3167369316952364</v>
+        <v>0.4014307785043496</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6197,7 +6197,7 @@
         <v>2.01964419967</v>
       </c>
       <c r="K171">
-        <v>0.05201928058767147</v>
+        <v>0.03640841668463468</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6232,7 +6232,7 @@
         <v>0.06321533988480001</v>
       </c>
       <c r="K172">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6267,7 +6267,7 @@
         <v>2.58494964248</v>
       </c>
       <c r="K173">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6302,7 +6302,7 @@
         <v>1.85460780852</v>
       </c>
       <c r="K174">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6337,7 +6337,7 @@
         <v>0.872716799823</v>
       </c>
       <c r="K175">
-        <v>0.2715664311555608</v>
+        <v>0.2536562206161176</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6372,7 +6372,7 @@
         <v>2.43155254563</v>
       </c>
       <c r="K176">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6407,7 +6407,7 @@
         <v>0.6805241416269999</v>
       </c>
       <c r="K177">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6453,7 +6453,7 @@
         <v>0.59494629104</v>
       </c>
       <c r="K179">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6488,7 +6488,7 @@
         <v>0.37002271925</v>
       </c>
       <c r="K180">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6523,7 +6523,7 @@
         <v>0.672879612632</v>
       </c>
       <c r="K181">
-        <v>0.3060139382479672</v>
+        <v>0.27338209099795</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6583,7 +6583,7 @@
         <v>0.363445886177</v>
       </c>
       <c r="K184">
-        <v>0.7760347743023938</v>
+        <v>0.8340922807308977</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6615,7 +6615,7 @@
         <v>0.0551403417203</v>
       </c>
       <c r="K185">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6629,7 +6629,7 @@
         <v>0.131220892576</v>
       </c>
       <c r="K186">
-        <v>0.08140431478568497</v>
+        <v>0.134676995546904</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6664,7 +6664,7 @@
         <v>0.809723318079</v>
       </c>
       <c r="K187">
-        <v>0.1158518218780916</v>
+        <v>0.1544028659287364</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6699,7 +6699,7 @@
         <v>0.8250874273819999</v>
       </c>
       <c r="K188">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6713,7 +6713,7 @@
         <v>0.0279017235435</v>
       </c>
       <c r="K189">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6748,7 +6748,7 @@
         <v>0.726554753339</v>
       </c>
       <c r="K190">
-        <v>0.3347375830999779</v>
+        <v>0.4373392475401584</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6783,7 +6783,7 @@
         <v>0.31407555055</v>
       </c>
       <c r="K191">
-        <v>0.5520695486047875</v>
+        <v>0.6681845614617951</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6818,7 +6818,7 @@
         <v>1.45773455595</v>
       </c>
       <c r="K192">
-        <v>0.1502993289704981</v>
+        <v>0.1741287363105687</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6853,7 +6853,7 @@
         <v>7.36009593842</v>
       </c>
       <c r="K193">
-        <v>0.2375735525352339</v>
+        <v>0.2507345634681596</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -6888,7 +6888,7 @@
         <v>0.7323786517380001</v>
       </c>
       <c r="K194">
-        <v>0.3347375830999779</v>
+        <v>0.4373392475401584</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -6923,7 +6923,7 @@
         <v>0.831220356866</v>
       </c>
       <c r="K195">
-        <v>0.1502993289704981</v>
+        <v>0.1741287363105687</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -6958,7 +6958,7 @@
         <v>2.52608189955</v>
       </c>
       <c r="K196">
-        <v>0.1174056175951683</v>
+        <v>0.2064939336185218</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -6993,7 +6993,7 @@
         <v>2.04005360405</v>
       </c>
       <c r="K197">
-        <v>0.1174056175951683</v>
+        <v>0.2064939336185218</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7028,7 +7028,7 @@
         <v>0.898894939965</v>
       </c>
       <c r="K198">
-        <v>0.2009580086649168</v>
+        <v>0.2056440761422937</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7063,7 +7063,7 @@
         <v>0.422837802542</v>
       </c>
       <c r="K199">
-        <v>0.2845103997346652</v>
+        <v>0.2047942186660656</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7098,7 +7098,7 @@
         <v>5.35462675471</v>
       </c>
       <c r="K200">
-        <v>0.1781336263241401</v>
+        <v>0.179250882635047</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7133,7 +7133,7 @@
         <v>4.38034317427</v>
       </c>
       <c r="K201">
-        <v>0.09458123525439165</v>
+        <v>0.180100740111275</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7168,7 +7168,7 @@
         <v>2.33604208395</v>
       </c>
       <c r="K202">
-        <v>0.2845103997346652</v>
+        <v>0.2047942186660656</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7203,7 +7203,7 @@
         <v>2.06926511317</v>
       </c>
       <c r="K203">
-        <v>0.2845103997346652</v>
+        <v>0.2047942186660656</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7238,7 +7238,7 @@
         <v>0.290692738992</v>
       </c>
       <c r="K204">
-        <v>0.1502993289704981</v>
+        <v>0.1741287363105687</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7270,7 +7270,7 @@
         <v>0.0210530568995</v>
       </c>
       <c r="K205">
-        <v>0.1502993289704981</v>
+        <v>0.1741287363105687</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7305,7 +7305,7 @@
         <v>4.62418337496</v>
       </c>
       <c r="K206">
-        <v>0.08923498218855545</v>
+        <v>0.1562109003561923</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7340,7 +7340,7 @@
         <v>2.92862111308</v>
       </c>
       <c r="K207">
-        <v>0.1502993289704981</v>
+        <v>0.1741287363105687</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7375,7 +7375,7 @@
         <v>1.87666721052</v>
       </c>
       <c r="K208">
-        <v>0.1174056175951683</v>
+        <v>0.2064939336185218</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7410,7 +7410,7 @@
         <v>1.68088691377</v>
       </c>
       <c r="K209">
-        <v>0.05870280879758404</v>
+        <v>0.1472519823790042</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7445,7 +7445,7 @@
         <v>1.58316649789</v>
       </c>
       <c r="K210">
-        <v>0.05870280879758404</v>
+        <v>0.1472519823790042</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7480,7 +7480,7 @@
         <v>3.01411723961</v>
       </c>
       <c r="K211">
-        <v>0.1781336263241401</v>
+        <v>0.179250882635047</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7515,7 +7515,7 @@
         <v>1.91368085665</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>0.08801003113948642</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7550,7 +7550,7 @@
         <v>3.46223026514</v>
       </c>
       <c r="K213">
-        <v>0.2978971745638498</v>
+        <v>0.3874490352464854</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7564,7 +7564,7 @@
         <v>0.0659729765455</v>
       </c>
       <c r="K214">
-        <v>0.1174056175951683</v>
+        <v>0.2064939336185218</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7578,7 +7578,7 @@
         <v>0.157670934909</v>
       </c>
       <c r="K215">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7592,7 +7592,7 @@
         <v>0.0613681387559</v>
       </c>
       <c r="K216">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7606,7 +7606,7 @@
         <v>0.006887366498699999</v>
       </c>
       <c r="K217">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7641,7 +7641,7 @@
         <v>0.404982340137</v>
       </c>
       <c r="K218">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7652,7 +7652,7 @@
         <v>0.00313213308194</v>
       </c>
       <c r="K219">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7687,7 +7687,7 @@
         <v>3.20874938811</v>
       </c>
       <c r="K220">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7722,7 +7722,7 @@
         <v>0.473771331967</v>
       </c>
       <c r="K221">
-        <v>0.3881429530481904</v>
+        <v>0.4779265860604673</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7757,7 +7757,7 @@
         <v>3.91371298437</v>
       </c>
       <c r="K222">
-        <v>0.2559026602310821</v>
+        <v>0.2747508233728136</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7792,7 +7792,7 @@
         <v>3.225480915309999</v>
       </c>
       <c r="K223">
-        <v>0.1149223761851761</v>
+        <v>0.1819015235649342</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7827,7 +7827,7 @@
         <v>0.649885298419</v>
       </c>
       <c r="K224">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7862,7 +7862,7 @@
         <v>0.885497096906</v>
       </c>
       <c r="K225">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7897,7 +7897,7 @@
         <v>0.541723423291</v>
       </c>
       <c r="K226">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7932,7 +7932,7 @@
         <v>5.00280094556</v>
       </c>
       <c r="K227">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7946,7 +7946,7 @@
         <v>0.0204399744692</v>
       </c>
       <c r="K228">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7981,7 +7981,7 @@
         <v>0.261773390196</v>
       </c>
       <c r="K229">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8016,7 +8016,7 @@
         <v>0.537320566688</v>
       </c>
       <c r="K230">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8051,7 +8051,7 @@
         <v>4.35595396487</v>
       </c>
       <c r="K231">
-        <v>0.2298447523703522</v>
+        <v>0.2757930159903819</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8086,7 +8086,7 @@
         <v>1.40938642852</v>
       </c>
       <c r="K232">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8121,7 +8121,7 @@
         <v>2.10446035491</v>
       </c>
       <c r="K233">
-        <v>0.7045290531827659</v>
+        <v>0.8021456255169064</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8156,7 +8156,7 @@
         <v>1.28272871879</v>
       </c>
       <c r="K234">
-        <v>0.6081671868224651</v>
+        <v>0.6318186205615235</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8191,7 +8191,7 @@
         <v>0.145489306383</v>
       </c>
       <c r="K235">
-        <v>0.2298447523703522</v>
+        <v>0.2757930159903819</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8226,7 +8226,7 @@
         <v>11.6310675081</v>
       </c>
       <c r="K236">
-        <v>0.4342444889941383</v>
+        <v>0.4392649607693144</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8261,7 +8261,7 @@
         <v>2.37047496109</v>
       </c>
       <c r="K237">
-        <v>0.370825036416258</v>
+        <v>0.3686423157982613</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8275,7 +8275,7 @@
         <v>0.0553591512085</v>
       </c>
       <c r="K238">
-        <v>0.2298447523703522</v>
+        <v>0.2757930159903819</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8310,7 +8310,7 @@
         <v>6.614588404709999</v>
       </c>
       <c r="K239">
-        <v>0.370825036416258</v>
+        <v>0.3686423157982613</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8345,7 +8345,7 @@
         <v>1.33598533711</v>
       </c>
       <c r="K240">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8359,7 +8359,7 @@
         <v>3.42656605092</v>
       </c>
       <c r="K241">
-        <v>0.07175685291361499</v>
+        <v>0.1537075466040283</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8394,7 +8394,7 @@
         <v>4.890735238880001</v>
       </c>
       <c r="K242">
-        <v>0.2917810866878895</v>
+        <v>0.3075995811050845</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8429,7 +8429,7 @@
         <v>2.62745841755</v>
       </c>
       <c r="K243">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8464,7 +8464,7 @@
         <v>1.92960730162</v>
       </c>
       <c r="K244">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8499,7 +8499,7 @@
         <v>0.282700721104</v>
       </c>
       <c r="K245">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8534,7 +8534,7 @@
         <v>3.3995738524</v>
       </c>
       <c r="K246">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8569,7 +8569,7 @@
         <v>1.27296796276</v>
       </c>
       <c r="K247">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8604,7 +8604,7 @@
         <v>0.368868691256</v>
       </c>
       <c r="K248">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8639,7 +8639,7 @@
         <v>0.7762476821500001</v>
       </c>
       <c r="K249">
-        <v>0.511805320462164</v>
+        <v>0.4614916156061408</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8674,7 +8674,7 @@
         <v>9.269298880180001</v>
       </c>
       <c r="K250">
-        <v>0.5558596347912421</v>
+        <v>0.5121200817870664</v>
       </c>
     </row>
   </sheetData>
